--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/15/seed5/result_data_RandomForest.xlsx
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.893899999999998</v>
+        <v>6.180000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.39849999999999</v>
+        <v>-21.37859999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.736500000000003</v>
+        <v>8.901999999999997</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.9907</v>
+        <v>-21.95550000000001</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.510700000000002</v>
+        <v>5.656100000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.07659999999998</v>
+        <v>-21.06409999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>5.948299999999998</v>
+        <v>6.108699999999998</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.751300000000004</v>
+        <v>9.713900000000006</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.90939999999999</v>
+        <v>-19.9724</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.90969999999998</v>
+        <v>-20.04339999999998</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.2963</v>
+        <v>10.31409999999999</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.89840000000001</v>
+        <v>-21.8237</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.067499999999999</v>
+        <v>5.4788</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.6447</v>
+        <v>-21.684</v>
       </c>
       <c r="B54" t="n">
-        <v>4.551399999999998</v>
+        <v>4.512499999999998</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.24280000000001</v>
+        <v>-22.28160000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.0214</v>
+        <v>-22.14190000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.36029999999997</v>
+        <v>-21.38619999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.54769999999997</v>
+        <v>-21.55789999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.9936</v>
+        <v>-21.9857</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.7895</v>
+        <v>9.663999999999996</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.668199999999999</v>
+        <v>9.656100000000002</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.58879999999998</v>
+        <v>-21.64199999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.88000000000001</v>
+        <v>-21.933</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.67069999999998</v>
+        <v>-20.9837</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.4566</v>
+        <v>-21.4734</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>5.534999999999996</v>
+        <v>5.701199999999997</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.8472</v>
+        <v>-21.78839999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>5.709399999999993</v>
+        <v>6.086999999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.0018</v>
+        <v>4.089599999999999</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.4302</v>
+        <v>-21.58319999999999</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
